--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA86EE3-0081-48C0-9C2F-5AC53C705C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311DA0D7-EA55-4CCA-859F-CB1CF3F400D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{E072AE1F-5185-4809-81D6-18EA9104928F}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{E072AE1F-5185-4809-81D6-18EA9104928F}">
       <text>
         <r>
           <rPr>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -185,6 +185,34 @@
   </si>
   <si>
     <t>show</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小道士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑侠客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采药童子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富家小姐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhenqi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anqi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -535,15 +563,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -557,7 +585,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -569,13 +597,19 @@
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -589,25 +623,31 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
@@ -624,22 +664,28 @@
         <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1">
         <v>34</v>
       </c>
-      <c r="J3" s="1">
+      <c r="L3" s="1">
         <v>20001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
@@ -653,27 +699,186 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1">
         <v>40</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>20002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>45</v>
+      </c>
+      <c r="L5" s="1">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>42</v>
+      </c>
+      <c r="L6" s="1">
+        <v>20004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>38</v>
+      </c>
+      <c r="L7" s="1">
+        <v>20005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>46</v>
+      </c>
+      <c r="L8" s="1">
+        <v>20006</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311DA0D7-EA55-4CCA-859F-CB1CF3F400D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B82CF5-9639-4CF4-B765-385DEBA8937D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1">
         <v>34</v>
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" s="1">
         <v>40</v>
@@ -752,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K5" s="1">
         <v>45</v>
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" s="1">
         <v>42</v>
@@ -828,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" s="1">
         <v>38</v>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B82CF5-9639-4CF4-B765-385DEBA8937D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA61BE-0F9B-4F05-BE07-0B513C369E3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1">
         <v>34</v>
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="K4" s="1">
         <v>40</v>
@@ -752,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="K5" s="1">
         <v>45</v>
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="K6" s="1">
         <v>42</v>
@@ -828,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="K7" s="1">
         <v>38</v>
@@ -866,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="K8" s="1">
         <v>46</v>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA61BE-0F9B-4F05-BE07-0B513C369E3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410EDF2C-C918-420D-98A7-AECD2BA49CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -679,7 +679,7 @@
         <v>20</v>
       </c>
       <c r="K3" s="1">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="L3" s="1">
         <v>20001</v>
@@ -717,7 +717,7 @@
         <v>40</v>
       </c>
       <c r="K4" s="1">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="L4" s="1">
         <v>20002</v>
@@ -755,7 +755,7 @@
         <v>50</v>
       </c>
       <c r="K5" s="1">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="L5" s="1">
         <v>20003</v>
@@ -793,7 +793,7 @@
         <v>30</v>
       </c>
       <c r="K6" s="1">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="L6" s="1">
         <v>20004</v>
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="K7" s="1">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="L7" s="1">
         <v>20005</v>
@@ -869,7 +869,7 @@
         <v>30</v>
       </c>
       <c r="K8" s="1">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="L8" s="1">
         <v>20006</v>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410EDF2C-C918-420D-98A7-AECD2BA49CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757816A6-F398-4FD7-992E-2C1D22475FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{E072AE1F-5185-4809-81D6-18EA9104928F}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{E072AE1F-5185-4809-81D6-18EA9104928F}">
       <text>
         <r>
           <rPr>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -213,6 +213,14 @@
   </si>
   <si>
     <t>anqi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choupai</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -563,15 +571,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -585,10 +593,10 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>12</v>
@@ -597,19 +605,22 @@
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -623,31 +634,34 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
@@ -667,25 +681,28 @@
         <v>3</v>
       </c>
       <c r="G3" s="1">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
       <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
         <v>2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>20</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>124</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>20001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
@@ -702,28 +719,31 @@
         <v>3</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1">
         <v>40</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>151</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>20002</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>10003</v>
       </c>
@@ -740,28 +760,31 @@
         <v>3</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
         <v>2</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>50</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>112</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>20003</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10004</v>
       </c>
@@ -778,28 +801,31 @@
         <v>3</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
         <v>2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>30</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>186</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>20004</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>10005</v>
       </c>
@@ -816,28 +842,31 @@
         <v>3</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
         <v>2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>40</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>135</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>20005</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10006</v>
       </c>
@@ -854,24 +883,27 @@
         <v>3</v>
       </c>
       <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
       </c>
       <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1">
         <v>30</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>167</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>20006</v>
       </c>
     </row>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757816A6-F398-4FD7-992E-2C1D22475FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADEE91A-A896-4136-9702-EE854FDC0406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,7 +574,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K4" s="1">
         <v>40</v>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADEE91A-A896-4136-9702-EE854FDC0406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,13 +30,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{E072AE1F-5185-4809-81D6-18EA9104928F}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{273D1F19-59C3-4D8A-A748-BAF3253CE423}">
+    <comment ref="C2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{B6371787-8C53-4B6E-BDB3-01E28D3912BA}">
+    <comment ref="E2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -221,13 +220,17 @@
   </si>
   <si>
     <t>choupai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -570,16 +573,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -590,16 +593,16 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>12</v>
@@ -608,19 +611,22 @@
         <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -631,37 +637,40 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
@@ -671,38 +680,39 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
       <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
       <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
         <v>2</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>20</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>124</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>20001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
@@ -712,38 +722,39 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
         <v>2</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>40</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>151</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>20002</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>10003</v>
       </c>
@@ -754,37 +765,40 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>50038</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
         <v>5</v>
       </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
       <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
         <v>2</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>50</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>112</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>20003</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10004</v>
       </c>
@@ -794,38 +808,39 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
         <v>2</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>30</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>186</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>20004</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>10005</v>
       </c>
@@ -835,38 +850,39 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
         <v>2</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>40</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>135</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>20005</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10006</v>
       </c>
@@ -876,34 +892,35 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
       </c>
       <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
       <c r="I8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
         <v>2</v>
       </c>
       <c r="K8" s="1">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
         <v>30</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>167</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>20006</v>
       </c>
     </row>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -577,7 +577,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -577,7 +577,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5004C09F-5A2A-4A3F-8EFB-ED6A50E3E941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,24 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="1" shapeId="0">
+    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1" shapeId="0">
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +225,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -573,16 +568,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -626,7 +621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -670,7 +665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
@@ -680,7 +675,9 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>50049</v>
+      </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -712,7 +709,7 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
@@ -754,7 +751,7 @@
         <v>20002</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>10003</v>
       </c>
@@ -765,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>50038</v>
+        <v>50047</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -798,7 +795,7 @@
         <v>20003</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10004</v>
       </c>
@@ -840,7 +837,7 @@
         <v>20004</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>10005</v>
       </c>
@@ -850,7 +847,9 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>50038</v>
+      </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
@@ -882,7 +881,7 @@
         <v>20005</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10006</v>
       </c>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5004C09F-5A2A-4A3F-8EFB-ED6A50E3E941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAD9996-D3AA-46DA-B815-E2693BF5FAC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>普通人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>quan</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -162,10 +158,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>世家子弟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -182,22 +174,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小道士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑侠客</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采药童子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>富家小姐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -219,6 +195,30 @@
   </si>
   <si>
     <t>gift</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈士之</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈曼荷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙宗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李修为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方昊空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫固</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -572,53 +572,53 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -632,37 +632,37 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>10002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>10003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>10004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>10005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>10006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAD9996-D3AA-46DA-B815-E2693BF5FAC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DD48BD-42FB-40BF-8544-87334D5C87B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -572,7 +572,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DD48BD-42FB-40BF-8544-87334D5C87B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50F53EB-563B-4D27-AFE9-34B72633DA45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -572,7 +572,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50F53EB-563B-4D27-AFE9-34B72633DA45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CCE7C2-26BE-4CBA-9902-7BF831E563DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -572,7 +572,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -700,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="1">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="M3" s="1">
         <v>124</v>
@@ -742,7 +742,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M4" s="1">
         <v>151</v>
@@ -786,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M5" s="1">
         <v>112</v>
@@ -828,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="1">
         <v>186</v>
@@ -872,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M7" s="1">
         <v>135</v>
@@ -914,7 +914,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M8" s="1">
         <v>167</v>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CCE7C2-26BE-4CBA-9902-7BF831E563DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CCEADB-4FBB-42D9-AF6E-376164272C11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -219,6 +219,10 @@
   </si>
   <si>
     <t>莫固</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50055,50047</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -284,9 +288,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -572,10 +579,13 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -675,7 +685,7 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>50049</v>
       </c>
       <c r="E3" s="1">
@@ -719,7 +729,7 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1">
         <v>1</v>
       </c>
@@ -761,8 +771,8 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
-        <v>50047</v>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -805,7 +815,7 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <v>1</v>
       </c>
@@ -847,7 +857,7 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>50038</v>
       </c>
       <c r="E7" s="1">

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CCEADB-4FBB-42D9-AF6E-376164272C11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B02D606-ECB4-4535-874F-D8345101ADAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,7 +579,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -778,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B02D606-ECB4-4535-874F-D8345101ADAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420BD7BF-389B-46DD-85EB-A4242230A94D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -222,7 +222,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>50055,50047</t>
+    <t>50059</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50047</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +583,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -685,8 +689,8 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
-        <v>50049</v>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -857,9 +861,7 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="2">
-        <v>50038</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="1">
         <v>1</v>
       </c>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420BD7BF-389B-46DD-85EB-A4242230A94D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B119356-BEBE-43A7-9E37-C9E07805C2B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -219,10 +219,6 @@
   </si>
   <si>
     <t>莫固</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50059</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -583,7 +579,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -689,9 +685,7 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="1">
         <v>1</v>
       </c>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B119356-BEBE-43A7-9E37-C9E07805C2B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22F22D4-F274-474C-9C3D-8CBF65926310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,31 +198,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>陈士之</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈曼荷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙宗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李修为</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方昊空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>莫固</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>50047</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹丘生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岑夫子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴武陵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗玄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽唐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>萧君圭</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +579,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -680,7 +680,7 @@
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -764,13 +764,13 @@
         <v>10003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -808,7 +808,7 @@
         <v>10004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>10005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>10006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22F22D4-F274-474C-9C3D-8CBF65926310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26652267-D91B-4029-8537-05196838A423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -223,6 +223,26 @@
   </si>
   <si>
     <t>萧君圭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龚古</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔恕己</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔奉壹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马东阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张怀民</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +287,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -288,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -296,6 +322,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -576,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -929,6 +956,261 @@
         <v>20006</v>
       </c>
     </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>31</v>
+      </c>
+      <c r="M9" s="1">
+        <v>186</v>
+      </c>
+      <c r="N9" s="1">
+        <v>20004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>10008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>35</v>
+      </c>
+      <c r="M10" s="1">
+        <v>135</v>
+      </c>
+      <c r="N10" s="1">
+        <v>20005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>28</v>
+      </c>
+      <c r="M11" s="1">
+        <v>167</v>
+      </c>
+      <c r="N11" s="1">
+        <v>20006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>31</v>
+      </c>
+      <c r="M12" s="1">
+        <v>186</v>
+      </c>
+      <c r="N12" s="1">
+        <v>20004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>35</v>
+      </c>
+      <c r="M13" s="1">
+        <v>135</v>
+      </c>
+      <c r="N13" s="1">
+        <v>20005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>10012</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>28</v>
+      </c>
+      <c r="M14" s="1">
+        <v>167</v>
+      </c>
+      <c r="N14" s="1">
+        <v>20006</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26652267-D91B-4029-8537-05196838A423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A562290-D2AE-4E6A-8486-A95AE8831E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -243,6 +243,10 @@
   </si>
   <si>
     <t>张怀民</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50047</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +610,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -712,7 +716,9 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A562290-D2AE-4E6A-8486-A95AE8831E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="E2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -246,14 +245,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>50047</t>
+    <t>小虾米</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>底层守卫</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,19 +609,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C7" sqref="C7:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -662,7 +665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -706,19 +709,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -729,28 +730,28 @@
         <v>3</v>
       </c>
       <c r="H3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M3" s="1">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="N3" s="1">
         <v>20001</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
@@ -792,7 +793,7 @@
         <v>20002</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>10003</v>
       </c>
@@ -836,7 +837,7 @@
         <v>20003</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10004</v>
       </c>
@@ -878,7 +879,7 @@
         <v>20004</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>10005</v>
       </c>
@@ -920,7 +921,7 @@
         <v>20005</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10006</v>
       </c>
@@ -962,7 +963,7 @@
         <v>20006</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10007</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>20004</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10008</v>
       </c>
@@ -1046,7 +1047,7 @@
         <v>20005</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10009</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>20006</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10010</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>20004</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10011</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>20005</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10012</v>
       </c>
@@ -1214,8 +1215,162 @@
         <v>20006</v>
       </c>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>10013</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>44</v>
+      </c>
+      <c r="M15" s="1">
+        <v>124</v>
+      </c>
+      <c r="N15" s="1">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>10014</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>25</v>
+      </c>
+      <c r="M16" s="1">
+        <v>50</v>
+      </c>
+      <c r="N16" s="1">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>10015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>10016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>10017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>10019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>10020</v>
+      </c>
       <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>10022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>10023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>10024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>10025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>10026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>10027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>10028</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E934EFF-A449-4067-8480-017F1E9D4134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="1" shapeId="0">
+    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1" shapeId="0">
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -115,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -197,10 +198,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>50047</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>丹丘生</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -249,14 +246,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>底层守卫</t>
+    <t>陆人贾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆人以</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆人炳</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,19 +614,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D33"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -665,7 +670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -709,12 +714,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -724,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
@@ -751,12 +756,12 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -766,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -793,24 +798,22 @@
         <v>20002</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>10003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -837,12 +840,12 @@
         <v>20003</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -852,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -879,12 +882,12 @@
         <v>20004</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>10005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -894,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -921,12 +924,12 @@
         <v>20005</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -936,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -963,12 +966,12 @@
         <v>20006</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -978,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
@@ -1005,12 +1008,12 @@
         <v>20004</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1020,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -1047,12 +1050,12 @@
         <v>20005</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -1062,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -1089,12 +1092,12 @@
         <v>20006</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1104,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -1131,12 +1134,12 @@
         <v>20004</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1146,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
@@ -1173,12 +1176,12 @@
         <v>20005</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1188,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -1215,24 +1218,22 @@
         <v>20006</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="1">
         <v>3</v>
@@ -1259,12 +1260,12 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>10014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -1274,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="1">
         <v>3</v>
@@ -1301,73 +1302,147 @@
         <v>20002</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10015</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>20</v>
+      </c>
+      <c r="M17" s="1">
+        <v>70</v>
+      </c>
+      <c r="N17" s="1">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>10016</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>27</v>
+      </c>
+      <c r="M18" s="1">
+        <v>60</v>
+      </c>
+      <c r="N18" s="1">
+        <v>20006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>10017</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>10018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>10019</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>10020</v>
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>10021</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>10022</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>10023</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>10024</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>10025</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>10026</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>10027</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>10028</v>
       </c>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E934EFF-A449-4067-8480-017F1E9D4134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADB98F8-CD7D-4B49-B3DB-A301997A1FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -747,10 +747,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M3" s="1">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N3" s="1">
         <v>20001</v>
@@ -1275,10 +1275,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -1293,10 +1293,10 @@
         <v>1</v>
       </c>
       <c r="L16" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M16" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N16" s="1">
         <v>20002</v>
@@ -1317,10 +1317,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -1335,10 +1335,10 @@
         <v>1</v>
       </c>
       <c r="L17" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M17" s="1">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="N17" s="1">
         <v>20002</v>
@@ -1359,10 +1359,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
@@ -1377,10 +1377,10 @@
         <v>1</v>
       </c>
       <c r="L18" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M18" s="1">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="N18" s="1">
         <v>20006</v>

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADB98F8-CD7D-4B49-B3DB-A301997A1FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D41178-784D-46D8-9E8D-C801E6269129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -198,63 +198,58 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>丹丘生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>岑夫子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴武陵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宗玄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>羽唐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>萧君圭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>龚古</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔恕己</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔奉壹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>马东阳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张怀民</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>小虾米</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>陆人贾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆人以</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆人炳</t>
+    <t>小虾米2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小虾米3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>野和尚</t>
+  </si>
+  <si>
+    <t>黑衣人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武当弟子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华山弟子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒门人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强盗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土匪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐帮帮众</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江湖少年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆仑剑士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣火教徒</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -618,11 +613,12 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -719,7 +715,7 @@
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -747,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M3" s="1">
         <v>58</v>
@@ -789,10 +785,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="1">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M4" s="1">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="N4" s="1">
         <v>20002</v>
@@ -803,7 +799,7 @@
         <v>10003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -831,10 +827,10 @@
         <v>2</v>
       </c>
       <c r="L5" s="1">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M5" s="1">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="N5" s="1">
         <v>20003</v>
@@ -845,7 +841,7 @@
         <v>10004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -855,31 +851,31 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M6" s="1">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="N6" s="1">
-        <v>20004</v>
+        <v>20006</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -887,7 +883,7 @@
         <v>10005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -897,31 +893,31 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M7" s="1">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="N7" s="1">
-        <v>20005</v>
+        <v>20006</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -929,7 +925,7 @@
         <v>10006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -939,28 +935,28 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M8" s="1">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="N8" s="1">
         <v>20006</v>
@@ -981,28 +977,28 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M9" s="1">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="N9" s="1">
         <v>20004</v>
@@ -1013,7 +1009,7 @@
         <v>10008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1023,28 +1019,28 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M10" s="1">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="N10" s="1">
         <v>20005</v>
@@ -1065,28 +1061,28 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M11" s="1">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="N11" s="1">
         <v>20006</v>
@@ -1097,7 +1093,7 @@
         <v>10010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1107,28 +1103,28 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M12" s="1">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="N12" s="1">
         <v>20004</v>
@@ -1139,7 +1135,7 @@
         <v>10011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1149,31 +1145,31 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
       </c>
       <c r="I13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M13" s="1">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="N13" s="1">
-        <v>20005</v>
+        <v>20004</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1181,7 +1177,7 @@
         <v>10012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1191,31 +1187,31 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
       </c>
       <c r="H14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M14" s="1">
-        <v>167</v>
+        <v>39</v>
       </c>
       <c r="N14" s="1">
-        <v>20006</v>
+        <v>20004</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1223,7 +1219,7 @@
         <v>10013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1233,31 +1229,31 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M15" s="1">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="N15" s="1">
-        <v>20001</v>
+        <v>20004</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1275,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
@@ -1293,13 +1289,13 @@
         <v>1</v>
       </c>
       <c r="L16" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M16" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N16" s="1">
-        <v>20002</v>
+        <v>20004</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1317,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1">
         <v>2</v>
@@ -1326,22 +1322,22 @@
         <v>1</v>
       </c>
       <c r="I17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M17" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N17" s="1">
-        <v>20002</v>
+        <v>20004</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1349,7 +1345,7 @@
         <v>10016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1359,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
@@ -1368,32 +1364,106 @@
         <v>1</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M18" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N18" s="1">
-        <v>20006</v>
+        <v>20004</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>10017</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>25</v>
+      </c>
+      <c r="M19" s="1">
+        <v>33</v>
+      </c>
+      <c r="N19" s="1">
+        <v>20004</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>10018</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>21</v>
+      </c>
+      <c r="M20" s="1">
+        <v>26</v>
+      </c>
+      <c r="N20" s="1">
+        <v>20004</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">

--- a/excel/hero.xlsx
+++ b/excel/hero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D41178-784D-46D8-9E8D-C801E6269129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6EB4ED-7D3E-40A3-8CFF-3A6117A48965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,14 +198,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小虾米</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小虾米2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>小虾米3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -250,6 +242,14 @@
   </si>
   <si>
     <t>圣火教徒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小何</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧桃</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +613,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -715,7 +715,7 @@
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -731,19 +731,19 @@
         <v>3</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="M3" s="1">
         <v>58</v>
@@ -757,7 +757,7 @@
         <v>10002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -773,22 +773,22 @@
         <v>3</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M4" s="1">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="N4" s="1">
         <v>20002</v>
@@ -799,7 +799,7 @@
         <v>10003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -815,16 +815,16 @@
         <v>3</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
         <v>52</v>
@@ -841,7 +841,7 @@
         <v>10004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>10005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>10006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>10007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>10008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>10009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>10010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>10011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>10012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>10013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>10014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>10015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>10016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>10017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>10018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
